--- a/R/input/test1.xlsx
+++ b/R/input/test1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Valentina Andrade\Documents\GitHub\master\econometrics\R\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53AA1ED7-6562-4092-BDB8-67B54D28BB56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2700DF-B03D-471A-9D09-4C53928885EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7170" yWindow="-11630" windowWidth="15580" windowHeight="11140" tabRatio="736" firstSheet="1" activeTab="2" xr2:uid="{2727AD97-F4E5-4C9F-A6E3-007315382B42}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="736" xr2:uid="{2727AD97-F4E5-4C9F-A6E3-007315382B42}"/>
   </bookViews>
   <sheets>
     <sheet name="Pred" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="146">
   <si>
     <t>b0</t>
   </si>
@@ -498,6 +498,9 @@
   </si>
   <si>
     <t>lim superior</t>
+  </si>
+  <si>
+    <t>X0</t>
   </si>
 </sst>
 </file>
@@ -508,7 +511,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -546,6 +549,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="LM Roman 10"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="8">
@@ -639,7 +648,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -672,6 +681,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -988,14 +999,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED210B7C-429E-419E-8585-7EE7A09F1F1E}">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="7.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.36328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.81640625" bestFit="1" customWidth="1"/>
@@ -1007,7 +1018,7 @@
     <col min="13" max="13" width="10.90625" customWidth="1"/>
     <col min="14" max="14" width="16.08984375" customWidth="1"/>
     <col min="15" max="15" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.6328125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="6.81640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10.26953125" bestFit="1" customWidth="1"/>
@@ -1087,45 +1098,45 @@
       <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="9">
-        <v>-397.57</v>
-      </c>
-      <c r="C3" s="9">
-        <v>119.47</v>
-      </c>
-      <c r="D3" s="9">
-        <v>19669.47</v>
-      </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
+      <c r="B3" s="1">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="C3" s="1">
+        <v>-0.29399999999999998</v>
+      </c>
+      <c r="D3" s="1">
+        <v>5.93</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="F3" s="32"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
-      <c r="J3" s="9">
-        <v>89325.32</v>
+      <c r="J3" s="1">
+        <v>32.950000000000003</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3">
-        <v>321</v>
+        <v>1000</v>
       </c>
       <c r="M3" s="4">
-        <f>(COUNTA(B3:J3))-1</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N3">
         <f>L3-M3-1</f>
-        <v>317</v>
+        <v>995</v>
       </c>
       <c r="Q3">
-        <f>4.17*10^11</f>
-        <v>417000000000</v>
+        <v>1136471</v>
       </c>
       <c r="R3">
         <v>0.30209999999999998</v>
       </c>
       <c r="S3">
         <f>(1)-((L3-1)/N3)*(1-R3)</f>
-        <v>0.29549526813880134</v>
+        <v>0.29929437185929642</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
@@ -1283,7 +1294,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -1332,21 +1343,26 @@
       <c r="M9" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="O9" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="12">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C10" s="12">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="D10" s="12">
-        <v>3</v>
-      </c>
-      <c r="E10" s="12"/>
+        <v>1</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0</v>
+      </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
@@ -1357,11 +1373,19 @@
       <c r="K10" s="7"/>
       <c r="L10">
         <f>(Q3)/N3</f>
-        <v>1315457413.2492113</v>
+        <v>1142.1819095477388</v>
       </c>
       <c r="M10">
         <f>SQRT(L10)</f>
-        <v>36269.235079461097</v>
+        <v>33.796181878249776</v>
+      </c>
+      <c r="O10" cm="1">
+        <f t="array" ref="O10:O18">TRANSPOSE(B10:J10)</f>
+        <v>100</v>
+      </c>
+      <c r="P10" s="2" t="e" cm="1">
+        <f t="array" ref="P10">MMULT(B10:J10,B23:J31)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
@@ -1380,6 +1404,9 @@
         <v>1</v>
       </c>
       <c r="K11" s="7"/>
+      <c r="O11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
@@ -1397,6 +1424,9 @@
         <v>1</v>
       </c>
       <c r="K12" s="7"/>
+      <c r="O12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
@@ -1414,6 +1444,9 @@
         <v>1</v>
       </c>
       <c r="K13" s="7"/>
+      <c r="O13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="7"/>
@@ -1427,6 +1460,9 @@
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
+      <c r="O14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="13" t="s">
@@ -1442,6 +1478,9 @@
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
       <c r="K15" s="13"/>
+      <c r="O15" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="13"/>
@@ -1475,33 +1514,36 @@
       <c r="K16" s="13" t="s">
         <v>26</v>
       </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="14">
-        <f t="shared" ref="B17:G17" si="3">B3*B10</f>
-        <v>0</v>
+        <f>B3*B10</f>
+        <v>79.600000000000009</v>
       </c>
       <c r="C17" s="14">
-        <f t="shared" si="3"/>
-        <v>14336.4</v>
+        <f>C3*C10</f>
+        <v>0</v>
       </c>
       <c r="D17" s="14">
-        <f t="shared" si="3"/>
-        <v>59008.41</v>
+        <f>D3*D10</f>
+        <v>5.93</v>
       </c>
       <c r="E17" s="14">
-        <f t="shared" si="3"/>
+        <f>E3*E10</f>
         <v>0</v>
       </c>
       <c r="F17" s="14">
-        <f t="shared" si="3"/>
+        <f>J3*F10</f>
         <v>0</v>
       </c>
       <c r="G17" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="B17:G17" si="3">G3*G10</f>
         <v>0</v>
       </c>
       <c r="H17" s="14">
@@ -1513,12 +1555,15 @@
         <v>0</v>
       </c>
       <c r="J17" s="14">
-        <f t="shared" si="4"/>
-        <v>89325.32</v>
+        <f>J3*J10</f>
+        <v>32.950000000000003</v>
       </c>
       <c r="K17" s="14">
         <f>SUM(B17:J17)</f>
-        <v>162670.13</v>
+        <v>118.48</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
@@ -1565,6 +1610,9 @@
         <f t="shared" ref="K18:K20" si="6">SUM(B18:J18)</f>
         <v>11.678599999999999</v>
       </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="14" t="s">
@@ -1704,24 +1752,24 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" ht="17.5" x14ac:dyDescent="0.5">
       <c r="A23" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B23" s="20">
-        <v>6.59</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="C23" s="16">
         <f>B24</f>
-        <v>372.11750000000001</v>
+        <v>1E-4</v>
       </c>
       <c r="D23" s="16">
         <f>B25</f>
-        <v>4632.6972999999998</v>
+        <v>8.7000000000000001E-5</v>
       </c>
       <c r="E23" s="16">
         <f>B26</f>
-        <v>0</v>
+        <v>-7.0000000000000001E-3</v>
       </c>
       <c r="F23" s="16">
         <f>B27</f>
@@ -1741,27 +1789,27 @@
       </c>
       <c r="J23" s="16">
         <f>B31</f>
-        <v>-115022.79</v>
+        <v>-0.315</v>
       </c>
       <c r="K23" s="16"/>
-      <c r="M23" s="2">
-        <f>2924662409/50</f>
-        <v>58493248.18</v>
+      <c r="M23" s="33">
+        <f>11734400625533500/10000000</f>
+        <v>1173440062.55335</v>
       </c>
       <c r="N23" s="2">
         <f>SQRT(M23+L10)</f>
-        <v>37066.8404565214</v>
+        <v>34255.528090152977</v>
       </c>
       <c r="O23" s="3">
         <v>1.962</v>
       </c>
       <c r="P23" s="2">
         <f>K17+O23*N23</f>
-        <v>235395.27097569499</v>
+        <v>67327.826112880139</v>
       </c>
       <c r="Q23">
         <f>K17-O23*N23</f>
-        <v>89944.989024305018</v>
+        <v>-67090.866112880147</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.35">
@@ -1769,18 +1817,17 @@
         <v>2</v>
       </c>
       <c r="B24" s="19">
-        <v>372.11750000000001</v>
+        <v>1E-4</v>
       </c>
       <c r="C24" s="20">
-        <v>318.08510000000001</v>
+        <v>1.2E-2</v>
       </c>
       <c r="D24" s="16">
-        <f>C25</f>
-        <v>-21901.52</v>
+        <v>0.09</v>
       </c>
       <c r="E24" s="16">
         <f>C26</f>
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="F24" s="16">
         <f>C27</f>
@@ -1800,7 +1847,7 @@
       </c>
       <c r="J24" s="16">
         <f>C31</f>
-        <v>20345.585999999999</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="K24" s="16"/>
     </row>
@@ -1809,17 +1856,16 @@
         <v>3</v>
       </c>
       <c r="B25" s="19">
-        <v>4632.6972999999998</v>
+        <v>8.7000000000000001E-5</v>
       </c>
       <c r="C25" s="19">
-        <v>-21901.52</v>
+        <v>-8.6999999999999994E-3</v>
       </c>
       <c r="D25" s="20">
-        <v>5228364.5</v>
+        <v>7.05</v>
       </c>
       <c r="E25" s="16">
-        <f>D26</f>
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="F25" s="16">
         <f>D27</f>
@@ -1839,7 +1885,7 @@
       </c>
       <c r="J25" s="16">
         <f>D31</f>
-        <v>-33709384</v>
+        <v>-1.46</v>
       </c>
       <c r="K25" s="16"/>
     </row>
@@ -1847,10 +1893,18 @@
       <c r="A26" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
+      <c r="B26" s="19">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="C26" s="19">
+        <v>0.13</v>
+      </c>
+      <c r="D26" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="E26" s="19">
+        <v>4.63</v>
+      </c>
       <c r="F26" s="16">
         <f>E27</f>
         <v>0</v>
@@ -1869,7 +1923,7 @@
       </c>
       <c r="J26" s="16">
         <f>E31</f>
-        <v>0</v>
+        <v>-0.76800000000000002</v>
       </c>
       <c r="K26" s="16"/>
     </row>
@@ -1968,22 +2022,23 @@
         <v>0</v>
       </c>
       <c r="B31" s="19">
-        <v>-115022.79</v>
+        <v>-0.315</v>
       </c>
       <c r="C31" s="19">
-        <v>20345.585999999999</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="D31" s="19">
-        <v>-33709384</v>
-      </c>
-      <c r="E31" s="19"/>
+        <v>-1.46</v>
+      </c>
+      <c r="E31" s="19">
+        <v>-0.76800000000000002</v>
+      </c>
       <c r="F31" s="19"/>
       <c r="G31" s="19"/>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
       <c r="J31" s="20">
-        <f>2.2*10^8</f>
-        <v>220000000.00000003</v>
+        <v>88.51</v>
       </c>
       <c r="K31" s="16"/>
     </row>
@@ -1997,8 +2052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25DCF233-E416-46F3-9A08-A20E6630929F}">
   <dimension ref="A1:U43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
@@ -2164,7 +2219,7 @@
         <v>216</v>
       </c>
       <c r="M4" s="4">
-        <f t="shared" ref="M4:M9" si="0">(COUNTA(B4:J4))-1</f>
+        <f t="shared" ref="M4:M8" si="0">(COUNTA(B4:J4))-1</f>
         <v>2</v>
       </c>
       <c r="N4">
@@ -2748,39 +2803,39 @@
         <v>8</v>
       </c>
       <c r="B25" s="14">
-        <f>B3*B14</f>
+        <f t="shared" ref="B25:J25" si="3">B3*B14</f>
         <v>0</v>
       </c>
       <c r="C25" s="14">
-        <f>C3*C14</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D25" s="14">
-        <f>D3*D14</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E25" s="14">
-        <f>E3*E14</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F25" s="14">
-        <f>F3*F14</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G25" s="14">
-        <f>G3*G14</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H25" s="14">
-        <f>H3*H14</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I25" s="14">
-        <f>I3*I14</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J25" s="14">
-        <f>J3*J14</f>
+        <f t="shared" si="3"/>
         <v>-8.5739999999999998</v>
       </c>
       <c r="K25" s="14">
@@ -2793,43 +2848,43 @@
         <v>9</v>
       </c>
       <c r="B26" s="14">
-        <f>B4*B15</f>
+        <f t="shared" ref="B26:J26" si="4">B4*B15</f>
         <v>0</v>
       </c>
       <c r="C26" s="14">
-        <f>C4*C15</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D26" s="14">
-        <f>D4*D15</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E26" s="14">
-        <f>E4*E15</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F26" s="14">
-        <f>F4*F15</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G26" s="14">
-        <f>G4*G15</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H26" s="14">
-        <f>H4*H15</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I26" s="14">
-        <f>I4*I15</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J26" s="14">
-        <f>J4*J15</f>
+        <f t="shared" si="4"/>
         <v>-11.143000000000001</v>
       </c>
       <c r="K26" s="14">
-        <f t="shared" ref="K26:K28" si="3">SUM(B26:J26)</f>
+        <f t="shared" ref="K26:K28" si="5">SUM(B26:J26)</f>
         <v>-11.143000000000001</v>
       </c>
     </row>
@@ -2838,43 +2893,43 @@
         <v>10</v>
       </c>
       <c r="B27" s="14">
-        <f>B5*B16</f>
+        <f t="shared" ref="B27:J27" si="6">B5*B16</f>
         <v>0</v>
       </c>
       <c r="C27" s="14">
-        <f>C5*C16</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="D27" s="14">
-        <f>D5*D16</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E27" s="14">
-        <f>E5*E16</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F27" s="14">
-        <f>F5*F16</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G27" s="14">
-        <f>G5*G16</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H27" s="14">
-        <f>H5*H16</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I27" s="14">
-        <f>I5*I16</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J27" s="14">
-        <f>J5*J16</f>
+        <f t="shared" si="6"/>
         <v>42.127000000000002</v>
       </c>
       <c r="K27" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>42.127000000000002</v>
       </c>
     </row>
@@ -2883,43 +2938,43 @@
         <v>11</v>
       </c>
       <c r="B28" s="14">
-        <f t="shared" ref="B28:I28" si="4">B6*B17</f>
+        <f t="shared" ref="B28:I28" si="7">B6*B17</f>
         <v>0</v>
       </c>
       <c r="C28" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D28" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E28" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F28" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G28" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H28" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I28" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J28" s="14">
-        <f t="shared" ref="B28:J28" si="5">J6*J17</f>
+        <f t="shared" ref="J28" si="8">J6*J17</f>
         <v>46.139000000000003</v>
       </c>
       <c r="K28" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>46.139000000000003</v>
       </c>
     </row>
@@ -2928,35 +2983,35 @@
         <v>60</v>
       </c>
       <c r="B29" s="14">
-        <f t="shared" ref="B29:I29" si="6">B7*B18</f>
+        <f t="shared" ref="B29:I29" si="9">B7*B18</f>
         <v>7190</v>
       </c>
       <c r="C29" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D29" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E29" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F29" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G29" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-11.009</v>
       </c>
       <c r="H29" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I29" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J29" s="14">
@@ -2973,35 +3028,35 @@
         <v>61</v>
       </c>
       <c r="B30" s="14">
-        <f t="shared" ref="B30:I30" si="7">B8*B19</f>
+        <f t="shared" ref="B30:I30" si="10">B8*B19</f>
         <v>0</v>
       </c>
       <c r="C30" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="D30" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E30" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F30" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G30" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H30" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I30" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J30" s="14">
@@ -3009,7 +3064,7 @@
         <v>19.841999999999999</v>
       </c>
       <c r="K30" s="14">
-        <f t="shared" ref="K30:K32" si="8">SUM(B30:J30)</f>
+        <f t="shared" ref="K30:K32" si="11">SUM(B30:J30)</f>
         <v>19.841999999999999</v>
       </c>
     </row>
@@ -3018,35 +3073,35 @@
         <v>62</v>
       </c>
       <c r="B31" s="14">
-        <f t="shared" ref="B31:I31" si="9">B9*B20</f>
+        <f t="shared" ref="B31:I31" si="12">B9*B20</f>
         <v>0</v>
       </c>
       <c r="C31" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="D31" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E31" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F31" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G31" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H31" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I31" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J31" s="14">
@@ -3054,7 +3109,7 @@
         <v>129.24299999999999</v>
       </c>
       <c r="K31" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>129.24299999999999</v>
       </c>
     </row>
@@ -3063,43 +3118,43 @@
         <v>63</v>
       </c>
       <c r="B32" s="14">
-        <f t="shared" ref="B32:J32" si="10">B10*B21</f>
+        <f t="shared" ref="B32:J32" si="13">B10*B21</f>
         <v>0</v>
       </c>
       <c r="C32" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D32" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E32" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F32" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G32" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H32" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I32" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J32" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K32" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -3454,7 +3509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD45B7A1-4897-4AE7-A0E7-BF63BDBE66B2}">
   <dimension ref="A1:U43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F17" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
@@ -3602,7 +3657,7 @@
       </c>
       <c r="K4" s="7"/>
       <c r="M4" s="4">
-        <f t="shared" ref="M4:M9" si="0">(COUNTA(B4:J4))-1</f>
+        <f t="shared" ref="M4:M8" si="0">(COUNTA(B4:J4))-1</f>
         <v>0</v>
       </c>
       <c r="N4">
@@ -3937,7 +3992,7 @@
       </c>
       <c r="K15" s="7"/>
       <c r="L15">
-        <f t="shared" ref="L15:L17" si="3">(Q4)/N4</f>
+        <f t="shared" ref="L15:L16" si="3">(Q4)/N4</f>
         <v>0</v>
       </c>
       <c r="M15">
@@ -4174,39 +4229,39 @@
         <v>8</v>
       </c>
       <c r="B25" s="14">
-        <f>B3*B14</f>
+        <f t="shared" ref="B25:J25" si="8">B3*B14</f>
         <v>0</v>
       </c>
       <c r="C25" s="14">
-        <f>C3*C14</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D25" s="14">
-        <f>D3*D14</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E25" s="14">
-        <f>E3*E14</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F25" s="14">
-        <f>F3*F14</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G25" s="14">
-        <f>G3*G14</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H25" s="14">
-        <f>H3*H14</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I25" s="14">
-        <f>I3*I14</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J25" s="14">
-        <f>J3*J14</f>
+        <f t="shared" si="8"/>
         <v>-8.5739999999999998</v>
       </c>
       <c r="K25" s="14">
@@ -4219,43 +4274,43 @@
         <v>9</v>
       </c>
       <c r="B26" s="14">
-        <f>B4*B15</f>
+        <f t="shared" ref="B26:J26" si="9">B4*B15</f>
         <v>0</v>
       </c>
       <c r="C26" s="14">
-        <f>C4*C15</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D26" s="14">
-        <f>D4*D15</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E26" s="14">
-        <f>E4*E15</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F26" s="14">
-        <f>F4*F15</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G26" s="14">
-        <f>G4*G15</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H26" s="14">
-        <f>H4*H15</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I26" s="14">
-        <f>I4*I15</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J26" s="14">
-        <f>J4*J15</f>
+        <f t="shared" si="9"/>
         <v>-11.143000000000001</v>
       </c>
       <c r="K26" s="14">
-        <f t="shared" ref="K26:K28" si="8">SUM(B26:J26)</f>
+        <f t="shared" ref="K26:K28" si="10">SUM(B26:J26)</f>
         <v>-11.143000000000001</v>
       </c>
     </row>
@@ -4264,43 +4319,43 @@
         <v>10</v>
       </c>
       <c r="B27" s="14">
-        <f>B5*B16</f>
+        <f t="shared" ref="B27:J27" si="11">B5*B16</f>
         <v>0</v>
       </c>
       <c r="C27" s="14">
-        <f>C5*C16</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="D27" s="14">
-        <f>D5*D16</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E27" s="14">
-        <f>E5*E16</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F27" s="14">
-        <f>F5*F16</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G27" s="14">
-        <f>G5*G16</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H27" s="14">
-        <f>H5*H16</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I27" s="14">
-        <f>I5*I16</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J27" s="14">
-        <f>J5*J16</f>
+        <f t="shared" si="11"/>
         <v>42.127000000000002</v>
       </c>
       <c r="K27" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>42.127000000000002</v>
       </c>
     </row>
@@ -4309,43 +4364,43 @@
         <v>11</v>
       </c>
       <c r="B28" s="14">
-        <f t="shared" ref="B28:J32" si="9">B6*B17</f>
+        <f t="shared" ref="B28:J32" si="12">B6*B17</f>
         <v>-13</v>
       </c>
       <c r="C28" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="D28" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="E28" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F28" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G28" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H28" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I28" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J28" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K28" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
     </row>
@@ -4354,35 +4409,35 @@
         <v>60</v>
       </c>
       <c r="B29" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="C29" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="D29" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E29" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F29" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G29" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H29" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I29" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J29" s="14">
@@ -4399,35 +4454,35 @@
         <v>61</v>
       </c>
       <c r="B30" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="C30" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="D30" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E30" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F30" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G30" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H30" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I30" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J30" s="14">
@@ -4435,7 +4490,7 @@
         <v>19.841999999999999</v>
       </c>
       <c r="K30" s="14">
-        <f t="shared" ref="K30:K32" si="10">SUM(B30:J30)</f>
+        <f t="shared" ref="K30:K32" si="13">SUM(B30:J30)</f>
         <v>19.841999999999999</v>
       </c>
     </row>
@@ -4444,35 +4499,35 @@
         <v>62</v>
       </c>
       <c r="B31" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="C31" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="D31" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E31" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F31" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G31" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H31" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I31" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J31" s="14">
@@ -4480,7 +4535,7 @@
         <v>129.24299999999999</v>
       </c>
       <c r="K31" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>129.24299999999999</v>
       </c>
     </row>
@@ -4489,43 +4544,43 @@
         <v>63</v>
       </c>
       <c r="B32" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="C32" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="D32" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E32" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F32" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G32" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H32" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I32" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J32" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K32" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -4864,7 +4919,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4926,12 +4981,14 @@
       <c r="D3" s="31">
         <v>-7.2042000000000004E-4</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1">
+        <v>6.5</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1">
-        <v>9.0362799999999993E-2</v>
+        <v>-1.48</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1">
@@ -4957,12 +5014,14 @@
       <c r="D4" s="31">
         <v>-1.5181E-4</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1">
-        <v>4.1008900000000001E-2</v>
+        <v>1.58</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1">
@@ -4988,12 +5047,14 @@
         <f>1.699*10^-6</f>
         <v>1.699E-6</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1">
-        <v>-7.136E-3</v>
+        <v>1.99</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1">
@@ -5016,12 +5077,14 @@
       <c r="D6" s="1">
         <v>1.122165E-2</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1">
-        <v>0.12799749999999999</v>
+        <v>-1.9</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1">
@@ -5029,6 +5092,14 @@
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>10.56</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
@@ -5081,26 +5152,26 @@
       </c>
       <c r="F10">
         <f>COUNTA(J3:J7)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G10">
         <f>C10/(E10-F10)</f>
-        <v>0.19883216858237548</v>
+        <v>0.19921380422264875</v>
       </c>
       <c r="H10">
         <v>2</v>
       </c>
       <c r="J10" cm="1">
         <f t="array" ref="J10">MMULT(TRANSPOSE(L3:L6),J3:J6)</f>
-        <v>3.7487099999999995E-2</v>
+        <v>-23.47</v>
       </c>
       <c r="K10" cm="1">
         <f t="array" ref="K10">_xlfn.ANCHORARRAY(J10)-N3</f>
-        <v>3.7487099999999995E-2</v>
+        <v>-23.47</v>
       </c>
       <c r="L10" s="24" cm="1">
         <f t="array" ref="L10">TRANSPOSE(_xlfn.ANCHORARRAY(K10))</f>
-        <v>3.7487099999999995E-2</v>
+        <v>-23.47</v>
       </c>
       <c r="M10" s="24"/>
     </row>
@@ -5134,16 +5205,16 @@
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="15" cm="1">
         <f t="array" ref="A14:D14">G10*MMULT(TRANSPOSE(L3:L6),A3:D6)</f>
-        <v>2.2583357707586211E-7</v>
+        <v>2.2626703883608449E-7</v>
       </c>
       <c r="B14" s="15">
-        <v>-4.1088866469716474E-6</v>
+        <v>-4.1167731856414586E-6</v>
       </c>
       <c r="C14" s="15">
-        <v>8.5199584237547884E-8</v>
+        <v>8.5363115109404987E-8</v>
       </c>
       <c r="D14">
-        <v>2.6468737113854405E-5</v>
+        <v>2.6519540831923223E-5</v>
       </c>
       <c r="H14" s="23" t="e" cm="1">
         <f t="array" ref="H14">MMULT(F3:H3,A3:C5)</f>
@@ -5182,7 +5253,7 @@
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E17" s="25" cm="1">
         <f t="array" ref="E17">MINVERSE(MMULT(_xlfn.ANCHORARRAY(A14),L3:L6))</f>
-        <v>315289.20393673464</v>
+        <v>314685.20163034246</v>
       </c>
       <c r="F17" s="25"/>
       <c r="H17" t="e" cm="1">
@@ -5220,16 +5291,16 @@
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="29" cm="1">
         <f t="array" ref="A23">MMULT(_xlfn.ANCHORARRAY(L10),_xlfn.ANCHORARRAY(E17))</f>
-        <v>11819.277916896765</v>
+        <v>-7385661.6822641371</v>
       </c>
       <c r="B23" s="29"/>
       <c r="C23" cm="1">
         <f t="array" ref="C23">MMULT(_xlfn.ANCHORARRAY(A23),_xlfn.ANCHORARRAY(K10))</f>
-        <v>443.07045319850067</v>
+        <v>173341479.68273929</v>
       </c>
       <c r="D23">
         <f>C23/H10</f>
-        <v>221.53522659925034</v>
+        <v>86670739.841369644</v>
       </c>
     </row>
   </sheetData>
@@ -6556,8 +6627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34EB2ADC-E3AF-4FA6-A88C-1DD3C28CD375}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
